--- a/doc/Template/TemplateSHCH.xlsx
+++ b/doc/Template/TemplateSHCH.xlsx
@@ -80,15 +80,16 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -134,19 +135,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -432,49 +430,54 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" customWidth="1"/>
-    <col min="11" max="11" width="25.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.08984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="29.26953125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="34.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -483,5 +486,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>